--- a/main/xls/pc.xlsx
+++ b/main/xls/pc.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -25,62 +22,60 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HP3300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP6系列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>HP2700</t>
+  </si>
+  <si>
+    <t>HP2708</t>
+  </si>
+  <si>
+    <t>HP6000</t>
   </si>
   <si>
     <t>HP7400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HP7518</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HP7800</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HP7900</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想4250S
-(6100S)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想4250S</t>
   </si>
   <si>
     <t>扬天A4800</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联想
-4500T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>联想
-4500S</t>
+      <t>HP33</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>/M4500T</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>联想8500T</t>
+    <t>联想
+4500</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -88,10 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +117,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,24 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,34 +162,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -238,33 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="显示屏201608"/>
-      <sheetName val="显示器购置数量明细"/>
-      <sheetName val="主机201608"/>
-      <sheetName val="PC购置数量明细"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,90 +491,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
